--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B705546-3A69-43AC-989C-57FC9EB82A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82E934-A459-4BBB-BD56-A45C996BC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MeterReading" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -400,16 +400,10 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A2:E4"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B705546-3A69-43AC-989C-57FC9EB82A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MeterReading" sheetId="1" r:id="rId1"/>
+    <sheet name="MeterReading" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Customer Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>MeterReading</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,36 +420,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MeterReading</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CH001203008872</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Phạm Quốc Bảo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>290</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CH001203008874</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nguyễn Đình Chi</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>302</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Administrative offices</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82E934-A459-4BBB-BD56-A45C996BC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MeterReading" sheetId="1" r:id="rId1"/>
+    <sheet name="MeterReading" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Customer Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>MeterReading</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,30 +420,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MeterReading</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CH2486834696</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>138</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD6877-CFB5-4924-9676-93C711D3215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MeterReading" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Total Consumtion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Customer Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MeterReading</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CH2486834696</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CH001203009628</t>
+  </si>
+  <si>
+    <t>Nhat Anh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,69 +414,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Customer Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MeterReading</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CH2486834696</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>138</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD6877-CFB5-4924-9676-93C711D3215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Total Consumtion" sheetId="1" r:id="rId1"/>
+    <sheet name="MeterReading" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Customer Code</t>
   </si>
@@ -28,37 +27,163 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MeterReading</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>CH2486834696</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>CH001203009628</t>
-  </si>
-  <si>
-    <t>Nhat Anh</t>
+    <t>CH001203008872</t>
+  </si>
+  <si>
+    <t>CH001203008873</t>
+  </si>
+  <si>
+    <t>CH001203008874</t>
+  </si>
+  <si>
+    <t>CH001203008875</t>
+  </si>
+  <si>
+    <t>CH001203008876</t>
+  </si>
+  <si>
+    <t>CH001203008877</t>
+  </si>
+  <si>
+    <t>CH001203008878</t>
+  </si>
+  <si>
+    <t>CH001203008879</t>
+  </si>
+  <si>
+    <t>CH001203008880</t>
+  </si>
+  <si>
+    <t>CH001203008881</t>
+  </si>
+  <si>
+    <t>CH001203008882</t>
+  </si>
+  <si>
+    <t>CH001203008883</t>
+  </si>
+  <si>
+    <t>CH001203008884</t>
+  </si>
+  <si>
+    <t>CH001203008885</t>
+  </si>
+  <si>
+    <t>CH001203008886</t>
+  </si>
+  <si>
+    <t>CH001203008887</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Bảo</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chi</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Đức</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Huy</t>
+  </si>
+  <si>
+    <t>Đỗ Tiến Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Lê Tuần Hùng</t>
+  </si>
+  <si>
+    <t>Đinh Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Vũ Thu Giang</t>
+  </si>
+  <si>
+    <t>Đỗ Sinh Hùng</t>
+  </si>
+  <si>
+    <t>Võ Trường Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nam</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Bách</t>
+  </si>
+  <si>
+    <t>Total consumption</t>
+  </si>
+  <si>
+    <t>Manufacturing industry</t>
+  </si>
+  <si>
+    <t>Administrative office</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Late fee amount</t>
+  </si>
+  <si>
+    <t>Total payment amount</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Bill Status</t>
+  </si>
+  <si>
+    <t>15/4/2023</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>13/4/2023</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>14/4/2023</t>
+  </si>
+  <si>
+    <t>17/4/2023</t>
+  </si>
+  <si>
+    <t>16/4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,15 +229,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,14 +554,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,45 +586,341 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <v>909000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>138</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <v>1862500</v>
+      </c>
+      <c r="F4">
+        <v>186250</v>
+      </c>
+      <c r="G4">
+        <v>2048750</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>350</v>
+      </c>
+      <c r="E6">
+        <v>767300</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>900</v>
+      </c>
+      <c r="E8">
+        <v>2388300</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>332</v>
+      </c>
+      <c r="E10">
+        <v>716288</v>
+      </c>
+      <c r="F10">
+        <v>71629</v>
+      </c>
+      <c r="G10">
+        <v>787917</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>650</v>
+      </c>
+      <c r="E12">
+        <v>1731050</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <v>448080</v>
+      </c>
+      <c r="F14">
+        <v>44808</v>
+      </c>
+      <c r="G14">
+        <v>492888</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <v>1599600</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,6 +623,9 @@
       <c r="E2">
         <v>909000</v>
       </c>
+      <c r="G2">
+        <v>909000</v>
+      </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
@@ -700,6 +703,9 @@
       <c r="E6">
         <v>767300</v>
       </c>
+      <c r="G6">
+        <v>767300</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
@@ -737,6 +743,9 @@
       <c r="E8">
         <v>2388300</v>
       </c>
+      <c r="G8">
+        <v>2388300</v>
+      </c>
       <c r="H8" t="s">
         <v>48</v>
       </c>
@@ -817,6 +826,9 @@
       <c r="E12">
         <v>1731050</v>
       </c>
+      <c r="G12">
+        <v>1731050</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
       </c>
@@ -897,6 +909,9 @@
         <v>600</v>
       </c>
       <c r="E16">
+        <v>1599600</v>
+      </c>
+      <c r="G16">
         <v>1599600</v>
       </c>
       <c r="H16" s="3" t="s">

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2CF1AF-0660-4166-9E66-CAA911BFCAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MeterReading" sheetId="1" r:id="rId1"/>
+    <sheet name="Total consumption" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,15 +245,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,10 +706,10 @@
       <c r="G6">
         <v>767300</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
@@ -749,7 +749,7 @@
       <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
@@ -789,10 +789,9 @@
       <c r="G10">
         <v>787917</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" t="s">
         <v>49</v>
       </c>
@@ -807,8 +806,6 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -829,10 +826,10 @@
       <c r="G12">
         <v>1731050</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
@@ -849,8 +846,6 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -874,10 +869,9 @@
       <c r="G14">
         <v>492888</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" t="s">
         <v>49</v>
       </c>
@@ -892,8 +886,6 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -914,17 +906,17 @@
       <c r="G16">
         <v>1599600</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>46</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -934,8 +926,6 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,29 +486,19 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>Status</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>bill_status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CH001203007336</t>
+          <t>CH001203005978</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Nhat Anh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -517,23 +507,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1736308</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>173630.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1909938.8</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13/3/2023</t>
+          <t>3/3/2023</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21/3/2023</t>
+          <t>18/3/2023</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -541,15 +533,11 @@
           <t>Overdue</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,43 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ECCA93-4BC1-4346-BC69-3B093C086167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Total consumption" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Total consumption" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+  <si>
+    <t>Customer Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Total consumption</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Late fee amount</t>
+  </si>
+  <si>
+    <t>Total payment amount</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Bill Status</t>
+  </si>
+  <si>
+    <t>Administrative office</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>CH001203008872</t>
+  </si>
+  <si>
+    <t>CH001203008874</t>
+  </si>
+  <si>
+    <t>CH001203008876</t>
+  </si>
+  <si>
+    <t>CH001203008878</t>
+  </si>
+  <si>
+    <t>CH001203008880</t>
+  </si>
+  <si>
+    <t>CH001203008882</t>
+  </si>
+  <si>
+    <t>CH001203008884</t>
+  </si>
+  <si>
+    <t>CH001203008886</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Bảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chi</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Đinh Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Đỗ Sinh Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Đức</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>15/4/2023</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>13/4/2023</t>
+  </si>
+  <si>
+    <t>14/4/2023</t>
+  </si>
+  <si>
+    <t>17/4/2023</t>
+  </si>
+  <si>
+    <t>16/4/2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +162,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,124 +501,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Customer Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total consumption</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Late fee amount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total payment amount</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Due Date</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Payment Date</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Bill Status</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CH001203005978</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nhat Anh</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Administrative office</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>652</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1736308</v>
-      </c>
-      <c r="F2" t="n">
-        <v>173630.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1909938.8</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3/3/2023</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>18/3/2023</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Overdue</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>400</v>
+      </c>
+      <c r="E2" s="1">
+        <v>909000</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>909000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>700</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1862500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>186250</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2048750</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>350</v>
+      </c>
+      <c r="E4" s="1">
+        <v>767300</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>767300</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2388300</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>2388300</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="1">
+        <v>716288</v>
+      </c>
+      <c r="F6" s="1">
+        <v>71629</v>
+      </c>
+      <c r="G6" s="1">
+        <v>787917</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>650</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1731050</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1731050</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>230</v>
+      </c>
+      <c r="E8" s="1">
+        <v>448080</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44808</v>
+      </c>
+      <c r="G8" s="1">
+        <v>492888</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>600</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1599600</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1599600</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ECCA93-4BC1-4346-BC69-3B093C086167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Total consumption" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Customer Code</t>
   </si>
@@ -125,12 +124,66 @@
   </si>
   <si>
     <t>16/4/2023</t>
+  </si>
+  <si>
+    <t>CH001203008873</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Anh</t>
+  </si>
+  <si>
+    <t>Manufacturing industry</t>
+  </si>
+  <si>
+    <t>CH001203008875</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Đức</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>CH001203008877</t>
+  </si>
+  <si>
+    <t>Đỗ Tiến Đạt</t>
+  </si>
+  <si>
+    <t>CH001203008879</t>
+  </si>
+  <si>
+    <t>Lê Tuần Hùng</t>
+  </si>
+  <si>
+    <t>CH001203008881</t>
+  </si>
+  <si>
+    <t>Vũ Thu Giang</t>
+  </si>
+  <si>
+    <t>CH001203008883</t>
+  </si>
+  <si>
+    <t>Võ Trường Giang</t>
+  </si>
+  <si>
+    <t>CH001203008885</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nam</t>
+  </si>
+  <si>
+    <t>CH001203008887</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Bách</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,218 +633,325 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>700</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1862500</v>
-      </c>
-      <c r="F3" s="1">
-        <v>186250</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2048750</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="E4" s="1">
-        <v>767300</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1862500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>186250</v>
+      </c>
       <c r="G4" s="1">
-        <v>767300</v>
+        <v>2048750</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>900</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2388300</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>2388300</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1">
-        <v>716288</v>
-      </c>
-      <c r="F6" s="1">
-        <v>71629</v>
-      </c>
+        <v>767300</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>787917</v>
+        <v>767300</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>650</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1731050</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>1731050</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="E8" s="1">
-        <v>448080</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44808</v>
-      </c>
+        <v>2388300</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>492888</v>
+        <v>2388300</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>332</v>
+      </c>
+      <c r="E10">
+        <v>716288</v>
+      </c>
+      <c r="F10">
+        <v>71629</v>
+      </c>
+      <c r="G10">
+        <v>787917</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>650</v>
+      </c>
+      <c r="E12">
+        <v>1731050</v>
+      </c>
+      <c r="G12">
+        <v>1731050</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <v>448080</v>
+      </c>
+      <c r="F14">
+        <v>44808</v>
+      </c>
+      <c r="G14">
+        <v>492888</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D16">
         <v>600</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E16">
         <v>1599600</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+      <c r="G16">
         <v>1599600</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I16" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876D26F-6422-4F1D-A08A-27A1991A4F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total consumption" sheetId="1" r:id="rId1"/>
@@ -51,127 +52,127 @@
     <t>Bill Status</t>
   </si>
   <si>
+    <t>CH001203008872</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Bảo</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>15/4/2023</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>CH001203008873</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Anh</t>
+  </si>
+  <si>
+    <t>Manufacturing industry</t>
+  </si>
+  <si>
+    <t>CH001203008874</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chi</t>
+  </si>
+  <si>
     <t>Administrative office</t>
   </si>
   <si>
+    <t>13/4/2023</t>
+  </si>
+  <si>
     <t>Overdue</t>
   </si>
   <si>
-    <t>CH001203008872</t>
-  </si>
-  <si>
-    <t>CH001203008874</t>
+    <t>CH001203008875</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Đức</t>
+  </si>
+  <si>
+    <t>Business</t>
   </si>
   <si>
     <t>CH001203008876</t>
   </si>
   <si>
+    <t>Lê Tuấn Huy</t>
+  </si>
+  <si>
+    <t>14/4/2023</t>
+  </si>
+  <si>
+    <t>CH001203008877</t>
+  </si>
+  <si>
+    <t>Đỗ Tiến Đạt</t>
+  </si>
+  <si>
     <t>CH001203008878</t>
   </si>
   <si>
+    <t>Nguyễn Vũ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>CH001203008879</t>
+  </si>
+  <si>
+    <t>Lê Tuần Hùng</t>
+  </si>
+  <si>
     <t>CH001203008880</t>
   </si>
   <si>
+    <t>Đinh Huy Hoàng</t>
+  </si>
+  <si>
+    <t>17/4/2023</t>
+  </si>
+  <si>
+    <t>CH001203008881</t>
+  </si>
+  <si>
+    <t>Vũ Thu Giang</t>
+  </si>
+  <si>
     <t>CH001203008882</t>
   </si>
   <si>
+    <t>Đỗ Sinh Hùng</t>
+  </si>
+  <si>
+    <t>CH001203008883</t>
+  </si>
+  <si>
+    <t>Võ Trường Giang</t>
+  </si>
+  <si>
     <t>CH001203008884</t>
   </si>
   <si>
+    <t>Nguyễn Nhật Anh</t>
+  </si>
+  <si>
+    <t>CH001203008885</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nam</t>
+  </si>
+  <si>
     <t>CH001203008886</t>
   </si>
   <si>
-    <t>Phạm Quốc Bảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Chi</t>
-  </si>
-  <si>
-    <t>Lê Tuấn Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>Đinh Huy Hoàng</t>
-  </si>
-  <si>
-    <t>Đỗ Sinh Hùng</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Anh</t>
-  </si>
-  <si>
     <t>Hoàng Minh Đức</t>
   </si>
   <si>
-    <t>Household</t>
-  </si>
-  <si>
-    <t>15/4/2023</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>13/4/2023</t>
-  </si>
-  <si>
-    <t>14/4/2023</t>
-  </si>
-  <si>
-    <t>17/4/2023</t>
-  </si>
-  <si>
     <t>16/4/2023</t>
-  </si>
-  <si>
-    <t>CH001203008873</t>
-  </si>
-  <si>
-    <t>Đỗ Việt Anh</t>
-  </si>
-  <si>
-    <t>Manufacturing industry</t>
-  </si>
-  <si>
-    <t>CH001203008875</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng Đức</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>CH001203008877</t>
-  </si>
-  <si>
-    <t>Đỗ Tiến Đạt</t>
-  </si>
-  <si>
-    <t>CH001203008879</t>
-  </si>
-  <si>
-    <t>Lê Tuần Hùng</t>
-  </si>
-  <si>
-    <t>CH001203008881</t>
-  </si>
-  <si>
-    <t>Vũ Thu Giang</t>
-  </si>
-  <si>
-    <t>CH001203008883</t>
-  </si>
-  <si>
-    <t>Võ Trường Giang</t>
-  </si>
-  <si>
-    <t>CH001203008885</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Nam</t>
   </si>
   <si>
     <t>CH001203008887</t>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,28 +230,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -554,254 +540,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J17"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <v>909000</v>
+      </c>
+      <c r="G2">
+        <v>909000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <v>1862500</v>
+      </c>
+      <c r="F4">
+        <v>186250</v>
+      </c>
+      <c r="G4">
+        <v>2048750</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>350</v>
+      </c>
+      <c r="E6">
+        <v>767300</v>
+      </c>
+      <c r="G6">
+        <v>767300</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1">
-        <v>400</v>
-      </c>
-      <c r="E2" s="1">
-        <v>909000</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <v>909000</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>900</v>
+      </c>
+      <c r="E8">
+        <v>2388300</v>
+      </c>
+      <c r="G8">
+        <v>2388300</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>700</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1862500</v>
-      </c>
-      <c r="F4" s="1">
-        <v>186250</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2048750</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>350</v>
-      </c>
-      <c r="E6" s="1">
-        <v>767300</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>767300</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>900</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2388300</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>2388300</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
       <c r="D10">
         <v>332</v>
@@ -816,32 +764,32 @@
         <v>787917</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>650</v>
@@ -853,35 +801,35 @@
         <v>1731050</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>230</v>
@@ -896,32 +844,32 @@
         <v>492888</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>600</v>
@@ -933,13 +881,13 @@
         <v>1599600</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,7 +898,7 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_meterreading.xlsx
+++ b/data/data_meterreading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876D26F-6422-4F1D-A08A-27A1991A4F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Total consumption" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Customer Code</t>
   </si>
@@ -52,12 +51,60 @@
     <t>Bill Status</t>
   </si>
   <si>
+    <t>Administrative office</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
     <t>CH001203008872</t>
   </si>
   <si>
+    <t>CH001203008874</t>
+  </si>
+  <si>
+    <t>CH001203008876</t>
+  </si>
+  <si>
+    <t>CH001203008878</t>
+  </si>
+  <si>
+    <t>CH001203008880</t>
+  </si>
+  <si>
+    <t>CH001203008882</t>
+  </si>
+  <si>
+    <t>CH001203008884</t>
+  </si>
+  <si>
+    <t>CH001203008886</t>
+  </si>
+  <si>
     <t>Phạm Quốc Bảo</t>
   </si>
   <si>
+    <t>Nguyễn Đình Chi</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Đinh Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Đỗ Sinh Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Đức</t>
+  </si>
+  <si>
     <t>Household</t>
   </si>
   <si>
@@ -67,124 +114,22 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>CH001203008873</t>
-  </si>
-  <si>
-    <t>Đỗ Việt Anh</t>
-  </si>
-  <si>
-    <t>Manufacturing industry</t>
-  </si>
-  <si>
-    <t>CH001203008874</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Chi</t>
-  </si>
-  <si>
-    <t>Administrative office</t>
-  </si>
-  <si>
     <t>13/4/2023</t>
   </si>
   <si>
-    <t>Overdue</t>
-  </si>
-  <si>
-    <t>CH001203008875</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng Đức</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>CH001203008876</t>
-  </si>
-  <si>
-    <t>Lê Tuấn Huy</t>
-  </si>
-  <si>
     <t>14/4/2023</t>
   </si>
   <si>
-    <t>CH001203008877</t>
-  </si>
-  <si>
-    <t>Đỗ Tiến Đạt</t>
-  </si>
-  <si>
-    <t>CH001203008878</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>CH001203008879</t>
-  </si>
-  <si>
-    <t>Lê Tuần Hùng</t>
-  </si>
-  <si>
-    <t>CH001203008880</t>
-  </si>
-  <si>
-    <t>Đinh Huy Hoàng</t>
-  </si>
-  <si>
     <t>17/4/2023</t>
   </si>
   <si>
-    <t>CH001203008881</t>
-  </si>
-  <si>
-    <t>Vũ Thu Giang</t>
-  </si>
-  <si>
-    <t>CH001203008882</t>
-  </si>
-  <si>
-    <t>Đỗ Sinh Hùng</t>
-  </si>
-  <si>
-    <t>CH001203008883</t>
-  </si>
-  <si>
-    <t>Võ Trường Giang</t>
-  </si>
-  <si>
-    <t>CH001203008884</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Anh</t>
-  </si>
-  <si>
-    <t>CH001203008885</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Nam</t>
-  </si>
-  <si>
-    <t>CH001203008886</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Đức</t>
-  </si>
-  <si>
     <t>16/4/2023</t>
-  </si>
-  <si>
-    <t>CH001203008887</t>
-  </si>
-  <si>
-    <t>Nguyễn Gia Bách</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,13 +175,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -540,365 +500,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>400</v>
+      </c>
+      <c r="E2" s="1">
+        <v>909000</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>909000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1">
+        <v>700</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1862500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>186250</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2048750</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2">
-        <v>909000</v>
-      </c>
-      <c r="G2">
-        <v>909000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>350</v>
+      </c>
+      <c r="E4" s="1">
+        <v>767300</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>767300</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2388300</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>2388300</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>700</v>
-      </c>
-      <c r="E4">
-        <v>1862500</v>
-      </c>
-      <c r="F4">
-        <v>186250</v>
-      </c>
-      <c r="G4">
-        <v>2048750</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E6">
-        <v>767300</v>
+        <v>716288</v>
+      </c>
+      <c r="F6">
+        <v>71629</v>
       </c>
       <c r="G6">
-        <v>767300</v>
+        <v>787917</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>650</v>
+      </c>
+      <c r="E7">
+        <v>1731050</v>
+      </c>
+      <c r="G7">
+        <v>1731050</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="E8">
-        <v>2388300</v>
+        <v>448080</v>
+      </c>
+      <c r="F8">
+        <v>44808</v>
       </c>
       <c r="G8">
-        <v>2388300</v>
+        <v>492888</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>1599600</v>
+      </c>
+      <c r="G9">
+        <v>1599600</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>332</v>
-      </c>
-      <c r="E10">
-        <v>716288</v>
-      </c>
-      <c r="F10">
-        <v>71629</v>
-      </c>
-      <c r="G10">
-        <v>787917</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>650</v>
-      </c>
-      <c r="E12">
-        <v>1731050</v>
-      </c>
-      <c r="G12">
-        <v>1731050</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>230</v>
-      </c>
-      <c r="E14">
-        <v>448080</v>
-      </c>
-      <c r="F14">
-        <v>44808</v>
-      </c>
-      <c r="G14">
-        <v>492888</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>600</v>
-      </c>
-      <c r="E16">
-        <v>1599600</v>
-      </c>
-      <c r="G16">
-        <v>1599600</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
